--- a/Python/pptx Modify/template_mapping.xlsx
+++ b/Python/pptx Modify/template_mapping.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
